--- a/Main.xlsx
+++ b/Main.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manish\Desktop\Other\NKInterior\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manish\Desktop\Other\NKInterior\nkinteriors_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ED6D4C-C8BD-459A-A7D4-5B264C798D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57603AE9-4469-46F5-BE5F-7FF349B44BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>N.K. INTERIORS</t>
   </si>
@@ -97,13 +97,112 @@
   </si>
   <si>
     <t>Sr. No.</t>
+  </si>
+  <si>
+    <t>Description of Product/Service</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Taxable Value</t>
+  </si>
+  <si>
+    <t>CGST</t>
+  </si>
+  <si>
+    <t>SGST</t>
+  </si>
+  <si>
+    <t>IGST</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Left part</t>
+  </si>
+  <si>
+    <t>RightPart</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Total Invoice Amount in Words:</t>
+  </si>
+  <si>
+    <t>Total Amount Before Tax</t>
+  </si>
+  <si>
+    <t>Add : CGST</t>
+  </si>
+  <si>
+    <t>Add : SGST</t>
+  </si>
+  <si>
+    <t>Add : IGST</t>
+  </si>
+  <si>
+    <t>Tax Amount : GST</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>Total Amount After Tax</t>
+  </si>
+  <si>
+    <t>Bank Details:</t>
+  </si>
+  <si>
+    <t>Bank Account Number</t>
+  </si>
+  <si>
+    <t>Bank Branch IFSC</t>
+  </si>
+  <si>
+    <t>: 12342</t>
+  </si>
+  <si>
+    <t>: SBIIN</t>
+  </si>
+  <si>
+    <t>Terms and Conditions:</t>
+  </si>
+  <si>
+    <t>Bill Payment should be within 7 days.</t>
+  </si>
+  <si>
+    <t>GST Payable on Reverse Charge</t>
+  </si>
+  <si>
+    <t>Certified that the particulars given above are true and correct</t>
+  </si>
+  <si>
+    <t>For</t>
+  </si>
+  <si>
+    <t>Authorised Signatory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ \-#,##0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +223,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,13 +252,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,122 +561,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" customWidth="1"/>
+    <col min="6" max="8" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" customWidth="1"/>
+    <col min="13" max="13" width="6.77734375" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="61.2" x14ac:dyDescent="0.95">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="61.2" x14ac:dyDescent="0.95">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="B9" s="8"/>
+      <c r="H9" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
+      <c r="B10" s="9"/>
+      <c r="H10" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
+      <c r="B11" s="9"/>
+      <c r="H11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" s="9"/>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <v>24</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -559,12 +835,312 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>5000</v>
+      </c>
+      <c r="G23">
+        <v>60000</v>
+      </c>
+      <c r="H23">
+        <v>60000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="J23">
+        <v>5400</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="L23">
+        <v>5400</v>
+      </c>
+      <c r="M23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23">
+        <v>70800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>550</v>
+      </c>
+      <c r="G24">
+        <v>4950</v>
+      </c>
+      <c r="H24">
+        <v>4950</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="J24">
+        <v>445.5</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="L24">
+        <v>445.5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24">
+        <v>5841</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25">
+        <v>21</v>
+      </c>
+      <c r="F25">
+        <v>5550</v>
+      </c>
+      <c r="G25">
+        <v>64950</v>
+      </c>
+      <c r="H25">
+        <v>64950</v>
+      </c>
+      <c r="I25">
+        <v>5845.5</v>
+      </c>
+      <c r="K25">
+        <v>5845.5</v>
+      </c>
+      <c r="M25" t="s">
+        <v>35</v>
+      </c>
+      <c r="O25">
+        <v>76641</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27">
+        <v>64950</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28">
+        <v>5845.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29">
+        <v>5845.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31">
+        <v>11691</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" s="4">
+        <v>76641</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="A6:K8"/>
+    <mergeCell ref="A17:O17"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="A21:A22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Main.xlsx
+++ b/Main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manish\Desktop\Other\NKInterior\nkinteriors_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57603AE9-4469-46F5-BE5F-7FF349B44BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42664BFE-C648-49A6-AAEE-A5960E526918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>N.K. INTERIORS</t>
   </si>
@@ -252,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -281,6 +281,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,9 +766,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="H11" t="s">
+      <c r="H11" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -780,60 +783,132 @@
       <c r="G12">
         <v>24</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H14" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="B15" s="9"/>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="H16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="B18" s="9"/>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B19" s="9"/>
+      <c r="E19" t="s">
         <v>13</v>
       </c>
-      <c r="D19">
+      <c r="G19">
         <v>24</v>
       </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="9"/>
+      <c r="O19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1122,13 +1197,23 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="A20:O20"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="M19:N19"/>
     <mergeCell ref="L7:O7"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="A6:K8"/>
-    <mergeCell ref="A17:O17"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
